--- a/Cono/Optimizacion/Optimización.xlsx
+++ b/Cono/Optimizacion/Optimización.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\MuE_Patran\Cono\Optimizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E11392-092E-4A68-8D9A-992377DECBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38E3C9B-ECE7-4176-BF0F-27506F51A79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="1920" windowWidth="21600" windowHeight="11835" xr2:uid="{911CE62A-9F96-47DF-B544-2E8FAC57D2EB}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11835" xr2:uid="{911CE62A-9F96-47DF-B544-2E8FAC57D2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7FA1BD-99A0-4334-9EA8-3B81C62B70D2}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,6 +490,9 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>11</v>
+      </c>
       <c r="B6">
         <v>0.40300000000000002</v>
       </c>
@@ -501,6 +504,23 @@
       </c>
       <c r="E6">
         <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="C7">
+        <v>1.21</v>
+      </c>
+      <c r="D7">
+        <v>1.05</v>
+      </c>
+      <c r="E7">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
